--- a/com.crm.framework.SDET37/src/test/resources/HouserentalNew.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/HouserentalNew.xlsx
@@ -4,25 +4,33 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="12936" windowHeight="2640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M8"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -351,11 +359,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -365,8 +375,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -375,10 +386,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>